--- a/docss/trend/spain/E_bone.xlsx
+++ b/docss/trend/spain/E_bone.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cap9_Osteomuscular_Comarcas" sheetId="2" r:id="rId1"/>
     <sheet name="Tasa_anual_cap9_Osteomuscular" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12809,7 +12809,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12836,13 +12836,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>0.60497562980617292</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="C2">
-        <v>0.44691381950210046</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="D2">
-        <v>0.75647492488925927</v>
+        <v>0.75600000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12850,13 +12850,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>0.59826017688085775</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="C3">
-        <v>0.44717665640790166</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="D3">
-        <v>0.72866116676687409</v>
+        <v>0.72899999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12864,13 +12864,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>0.58782239259695368</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="C4">
-        <v>0.39471428738499764</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="D4">
-        <v>0.75344690178508422</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12878,13 +12878,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>0.61426808680174172</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="C5">
-        <v>0.43384404768057211</v>
+        <v>0.434</v>
       </c>
       <c r="D5">
-        <v>0.77904247257116688</v>
+        <v>0.77900000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12892,13 +12892,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>0.62588422210189221</v>
+        <v>0.626</v>
       </c>
       <c r="C6">
-        <v>0.45505782912149528</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D6">
-        <v>0.78806492126390537</v>
+        <v>0.78800000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12906,13 +12906,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>0.59558085068700028</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="C7">
-        <v>0.44250329719697312</v>
+        <v>0.443</v>
       </c>
       <c r="D7">
-        <v>0.73456967208462953</v>
+        <v>0.73499999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12920,13 +12920,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>0.71828390966384559</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="C8">
-        <v>0.55201449177784001</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="D8">
-        <v>0.86257654296437125</v>
+        <v>0.86299999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12934,13 +12934,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>0.58825109173053136</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="C9">
-        <v>0.43206513732081309</v>
+        <v>0.432</v>
       </c>
       <c r="D9">
-        <v>0.72377352749604029</v>
+        <v>0.72399999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12948,13 +12948,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>0.54468495855447641</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="C10">
-        <v>0.40934525671016952</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D10">
-        <v>0.65758839780423728</v>
+        <v>0.65800000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12962,13 +12962,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>0.60845772878952054</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="C11">
-        <v>0.4867117485855551</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="D11">
-        <v>0.70914667015026223</v>
+        <v>0.70899999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12976,13 +12976,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>0.62223474970240955</v>
+        <v>0.622</v>
       </c>
       <c r="C12">
-        <v>0.46440485201784021</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="D12">
-        <v>0.76450129594829053</v>
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12990,13 +12990,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>0.59130986363381155</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="C13">
-        <v>0.38955914319961693</v>
+        <v>0.39</v>
       </c>
       <c r="D13">
-        <v>0.7631768494246397</v>
+        <v>0.76300000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13004,13 +13004,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>0.60867653774462627</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="C14">
-        <v>0.47037013198970457</v>
+        <v>0.47</v>
       </c>
       <c r="D14">
-        <v>0.72410015727102039</v>
+        <v>0.72399999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13018,13 +13018,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>0.59392456341480249</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="C15">
-        <v>0.44795316607920405</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D15">
-        <v>0.71574853702898411</v>
+        <v>0.71599999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13032,13 +13032,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>0.66719620003734614</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="C16">
-        <v>0.46156285277730208</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="D16">
-        <v>0.84719391128190624</v>
+        <v>0.84699999999999998</v>
       </c>
     </row>
   </sheetData>
